--- a/Pandas/Arquivo.xlsx
+++ b/Pandas/Arquivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexandre\GitHub\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{835E3E34-C429-4DC3-AA18-29EC0CCD786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4A494-8F80-4EEC-8803-CDB18B2F9F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58AA8D62-4784-4E97-9FCE-00DE509FC9ED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58AA8D62-4784-4E97-9FCE-00DE509FC9ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -411,44 +411,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF15B436-DA4A-429D-8790-59BCE849C0EC}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -459,20 +454,25 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Pandas/Arquivo.xlsx
+++ b/Pandas/Arquivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexandre\GitHub\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4A494-8F80-4EEC-8803-CDB18B2F9F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE71F8-9EA7-41AA-B059-AD4AF0DB2D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58AA8D62-4784-4E97-9FCE-00DE509FC9ED}"/>
   </bookViews>
@@ -411,68 +411,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF15B436-DA4A-429D-8790-59BCE849C0EC}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
